--- a/public/public/db.xlsx
+++ b/public/public/db.xlsx
@@ -4534,12 +4534,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="75.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
